--- a/test_data/1.2.643.5.1.13.13.11.1522_4.52.xlsx
+++ b/test_data/1.2.643.5.1.13.13.11.1522_4.52.xlsx
@@ -20,24 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="1025">
-  <si>
-    <t xml:space="preserve">RECID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уникальный идентификатор </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Идентификатор OID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="1022">
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -3109,6 +3100,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3201,13 +3193,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C342"/>
+  <dimension ref="A1:C341"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.43"/>
@@ -3225,14 +3217,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6885,18 +6877,18 @@
         <v>1000</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>1001</v>
+        <v>491</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B335" s="0" t="s">
         <v>1002</v>
       </c>
-      <c r="B335" s="0" t="s">
+      <c r="C335" s="0" t="s">
         <v>1003</v>
-      </c>
-      <c r="C335" s="0" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6963,17 +6955,6 @@
       </c>
       <c r="C341" s="0" t="s">
         <v>1021</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B342" s="0" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C342" s="0" t="s">
-        <v>1024</v>
       </c>
     </row>
   </sheetData>
